--- a/backend/output/H3RDC0DE.xlsx
+++ b/backend/output/H3RDC0DE.xlsx
@@ -157,19 +157,19 @@
     <t>Non indiqué</t>
   </si>
   <si>
-    <t>société GLOBAL EXPLOITATION, Société par Actions Simplifiée Unipersonnelle</t>
+    <t>La société GLOBAL EXPLOITATION, Société par Actions Simplifiée Unipersonnelle</t>
   </si>
   <si>
     <t>Bail commercial</t>
   </si>
   <si>
-    <t>Résidence de services pour étudiants avec prestations de services para hôteliers</t>
+    <t>Résidence de services pour étudiants avec prestations para hôtelières</t>
   </si>
   <si>
     <t>Résidence PALO ALTO</t>
   </si>
   <si>
-    <t>Exploitation en résidence de services, hébergement meublé, prestations para hôtelières</t>
+    <t>Exploitation de son activité de location en Résidence de Services, sous-location à des étudiants ou jeunes actifs</t>
   </si>
   <si>
     <t>30/06/2016</t>
@@ -196,10 +196,10 @@
     <t>Tous les 3 ans</t>
   </si>
   <si>
-    <t>ILC</t>
-  </si>
-  <si>
-    <t>Le bail autorise la sous-location et impose des obligations de remise en état des locaux. Le Bailleur a une clause de non concurrence, ce qui protège le Preneur dans son activité.</t>
+    <t>Indice trimestriel des loyers commerciaux (ILC)</t>
+  </si>
+  <si>
+    <t>Le bail commercial est conclu pour une durée de neuf ans, avec des conditions spécifiques concernant la sous-location et la cession, ainsi qu'une clause résolutoire en cas de non-paiement des loyers.</t>
   </si>
   <si>
     <t>REPARTITION DES CHARGES</t>
@@ -292,9 +292,6 @@
   <si>
     <t xml:space="preserve">Travaux de remplacement des équipements dans les
 Parties communes</t>
-  </si>
-  <si>
-    <t>GLOBAL EXPLOITATION</t>
   </si>
   <si>
     <t>SOUS-LOCATION / CESSION</t>
@@ -382,28 +379,31 @@
     <t>Clause résolutoire</t>
   </si>
   <si>
-    <t>La société GLOBAL EXPLOITATION Societe par Actions Simplifiée Unipersonnelle</t>
-  </si>
-  <si>
-    <t>Oui, la sous-location est autorisée</t>
+    <t>Oui, le Preneur est autorisé à sous-louer les locaux meublés objets du présent bail à tout sous-locataire exerçant les mêmes activités.</t>
+  </si>
+  <si>
+    <t>Cession du droit au bail seul autorisée avec conditions.</t>
+  </si>
+  <si>
+    <t>Cession du fonds de commerce autorisée avec conditions.</t>
   </si>
   <si>
     <t>Le Preneur s'engage à rendre les lieux en bon état d'usage normal et de réparations locatives.</t>
   </si>
   <si>
-    <t>Clause d'accession sans indemnité</t>
-  </si>
-  <si>
-    <t>Oui, le Bailleur peut demander la remise en état initial.</t>
+    <t>Avec indemnité, le Bailleur ne peut exiger la remise en état des lieux dans leur état primitif.</t>
+  </si>
+  <si>
+    <t>Oui, le Bailleur peut demander la remise en état initial au départ du Preneur en fin de bail.</t>
   </si>
   <si>
     <t>Oui, droit de préemption en cas de vente des locaux loués.</t>
   </si>
   <si>
-    <t>Oui, clause de non concurrence pesant sur le Bailleur.</t>
-  </si>
-  <si>
-    <t>Il est expressément convenu qu'à défaut de paiement exact à son échéance d'un seul terme de loyer ou de charges par le preneur, le présent bail sera résilié de plein droit.</t>
+    <t>Oui, clause de non-concurrence pesant sur le Bailleur.</t>
+  </si>
+  <si>
+    <t>Oui, clause résolutoire présente.</t>
   </si>
 </sst>
 </file>
@@ -2562,28 +2562,28 @@
       <c r="B1" s="82"/>
       <c r="C1" s="83"/>
       <c r="D1" s="84" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E1" s="84"/>
       <c r="F1" s="84"/>
       <c r="G1" s="81" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H1" s="82"/>
       <c r="I1" s="82"/>
       <c r="J1" s="83"/>
       <c r="K1" s="85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L1" s="86"/>
       <c r="M1" s="87" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N1" s="87"/>
       <c r="O1" s="87"/>
       <c r="P1" s="87"/>
       <c r="Q1" s="88" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R1" s="89"/>
       <c r="S1" s="90"/>
@@ -2632,49 +2632,49 @@
         <v>6</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="E2" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="F2" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="92" t="s">
+      <c r="G2" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="93" t="s">
+      <c r="H2" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="93" t="s">
+      <c r="I2" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="94" t="s">
+      <c r="J2" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="94" t="s">
+      <c r="K2" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="95" t="s">
+      <c r="L2" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="92" t="s">
+      <c r="M2" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="94" t="s">
+      <c r="N2" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="N2" s="94" t="s">
+      <c r="O2" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="94" t="s">
+      <c r="P2" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="P2" s="94" t="s">
+      <c r="Q2" s="92" t="s">
         <v>88</v>
-      </c>
-      <c r="Q2" s="92" t="s">
-        <v>89</v>
       </c>
       <c r="R2" s="96" t="s">
         <v>28</v>
@@ -2746,16 +2746,16 @@
         <v>29</v>
       </c>
       <c r="C3" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="97" t="s">
+      <c r="F3" s="97" t="s">
         <v>91</v>
-      </c>
-      <c r="E3" s="97" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="97" t="s">
-        <v>29</v>
       </c>
       <c r="G3" s="98" t="s">
         <v>92</v>
@@ -3472,7 +3472,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>29</v>
